--- a/ь.xlsx
+++ b/ь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MaterialTypeImport" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>Тип материала</t>
   </si>
@@ -365,9 +365,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\+\7\(###\)\ ###\-##\-##"/>
+    <numFmt numFmtId="168" formatCode="\+\7&quot;&quot;\(#\)&quot; &quot;000\-00\-00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -421,9 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,6 +440,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -721,87 +723,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
         <v>1E-3</v>
       </c>
-      <c r="C2">
-        <f>B2*100</f>
+      <c r="D2">
+        <f>C2*100</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">B3*100</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D3">
+        <f>C3/100</f>
+        <v>9.4999999999999992E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
         <v>2.8E-3</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">C4*100</f>
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="11">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>0.54999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="11">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +872,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +925,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +949,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
@@ -905,7 +963,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" t="s">
@@ -919,7 +977,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
@@ -933,7 +991,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
@@ -947,7 +1005,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
@@ -970,7 +1028,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,10 +1045,10 @@
       <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1005,7 +1063,7 @@
       <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2.35</v>
       </c>
     </row>
@@ -1020,7 +1078,7 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>5.15</v>
       </c>
     </row>
@@ -1035,7 +1093,7 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>4.34</v>
       </c>
     </row>
@@ -1050,7 +1108,7 @@
       <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1.5</v>
       </c>
     </row>
@@ -1064,7 +1122,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1163,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <sortState ref="B1:B5">
@@ -1119,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,6 +1215,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <f>LOOKUP(C:C,ProductTypeName!B:B,ProductTypeName!A:A)</f>
         <v>3</v>
@@ -1174,11 +1235,14 @@
       <c r="F2">
         <v>8758385</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>4456.8999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <f>LOOKUP(C:C,ProductTypeName!B:B,ProductTypeName!A:A)</f>
         <v>3</v>
@@ -1196,11 +1260,14 @@
       <c r="F3">
         <v>8858958</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>7330.99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <f>LOOKUP(C:C,ProductTypeName!B:B,ProductTypeName!A:A)</f>
         <v>1</v>
@@ -1218,11 +1285,14 @@
       <c r="F4">
         <v>7750282</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>1799.33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <f>LOOKUP(C:C,ProductTypeName!B:B,ProductTypeName!A:A)</f>
         <v>1</v>
@@ -1240,11 +1310,14 @@
       <c r="F5">
         <v>7028748</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>3890.41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <f>LOOKUP(C:C,ProductTypeName!B:B,ProductTypeName!A:A)</f>
         <v>4</v>
@@ -1262,7 +1335,7 @@
       <c r="F6">
         <v>5012543</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>5450.59</v>
       </c>
     </row>
@@ -1276,7 +1349,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1358,7 @@
     <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="24.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,10 +1377,10 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1326,13 +1399,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>15500</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>45008</v>
       </c>
     </row>
@@ -1351,13 +1424,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12350</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>45278</v>
       </c>
     </row>
@@ -1376,13 +1449,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>37400</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>45450</v>
       </c>
     </row>
@@ -1401,13 +1474,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>35000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>44897</v>
       </c>
     </row>
@@ -1426,13 +1499,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1250</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>45063</v>
       </c>
     </row>
@@ -1451,13 +1524,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>45450</v>
       </c>
     </row>
@@ -1476,13 +1549,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>7550</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>45474</v>
       </c>
     </row>
@@ -1501,13 +1574,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>7250</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>44948</v>
       </c>
     </row>
@@ -1526,13 +1599,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2500</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>45478</v>
       </c>
     </row>
@@ -1551,13 +1624,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>59050</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>45005</v>
       </c>
     </row>
@@ -1576,13 +1649,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>37200</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>45363</v>
       </c>
     </row>
@@ -1601,13 +1674,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>4500</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>45426</v>
       </c>
     </row>
@@ -1626,13 +1699,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>50000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>45188</v>
       </c>
     </row>
@@ -1651,13 +1724,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>670000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>45240</v>
       </c>
     </row>
@@ -1676,13 +1749,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>35000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -1701,13 +1774,13 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>25000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>45455</v>
       </c>
     </row>
@@ -1722,7 +1795,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1812,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1747,7 +1820,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1755,7 +1828,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1763,7 +1836,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1771,7 +1844,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1788,7 +1861,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,14 +1935,14 @@
     <col min="7" max="9" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="10" customWidth="1"/>
     <col min="14" max="19" width="63.85546875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -1894,10 +1967,10 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>108</v>
       </c>
       <c r="N1" t="s">
@@ -1910,7 +1983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1925,33 +1998,33 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>LOOKUP(G:G,Directors!B:B,Directors!A:A)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="2" t="str">
         <f>CLEAN(K2)</f>
         <v>aleksandraivanova@ml.ru</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <f>LOOKUP(N:N,Addres!B:B,Addres!A:A)</f>
         <v>5</v>
       </c>
@@ -1977,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1992,33 +2065,33 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>LOOKUP(G:G,Directors!B:B,Directors!A:A)</f>
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="2" t="str">
         <f t="shared" ref="J3:J6" si="0">CLEAN(K3)</f>
         <v>vppetrov@vl.ru</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <f>LOOKUP(N:N,Addres!B:B,Addres!A:A)</f>
         <v>2</v>
       </c>
@@ -2044,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2059,33 +2132,33 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>LOOKUP(G:G,Directors!B:B,Directors!A:A)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ansolovev@st.ru</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <f>LOOKUP(N:N,Addres!B:B,Addres!A:A)</f>
         <v>3</v>
       </c>
@@ -2111,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2126,33 +2199,33 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>LOOKUP(G:G,Directors!B:B,Directors!A:A)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ekaterina.vorobeva@ml.ru</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <f>LOOKUP(N:N,Addres!B:B,Addres!A:A)</f>
         <v>1</v>
       </c>
@@ -2178,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2193,33 +2266,33 @@
         <f>LOOKUP(E:E,PartnerName!B:B,PartnerName!A:A)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>LOOKUP(G:G,Directors!B:B,Directors!A:A)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stepanov@stepan.ru</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <f>LOOKUP(N:N,Addres!B:B,Addres!A:A)</f>
         <v>4</v>
       </c>
@@ -2243,6 +2316,31 @@
       </c>
       <c r="U6">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH10" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH12" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2254,6 +2352,7 @@
     <hyperlink ref="K5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2261,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2576,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2642,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
